--- a/Adult Income Simple RF/Feature_importance_diff_50_5_3166_1.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_3166_1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,70 +465,70 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.03660284098914627</v>
+        <v>0.1868515820393258</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714200438667396</v>
+        <v>0.6321105138426554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5348172028775934</v>
+        <v>0.4452589318033295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>remainder__education-num</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2214909363782284</v>
+        <v>0.1737172791313356</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0442978387608873</v>
+        <v>0.02700184930639444</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1771930976173411</v>
+        <v>-0.1467154298249412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>remainder__education-num</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1780295112240391</v>
+        <v>0.168250034900139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03272575318828008</v>
+        <v>0.0329725519699194</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.145303758035759</v>
+        <v>-0.1352774829302196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1336734200086663</v>
+        <v>0.1003060074506809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009709685992698685</v>
+        <v>0.03655606441446455</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1239637340159676</v>
+        <v>-0.06374994303621639</v>
       </c>
     </row>
     <row r="6">
@@ -537,340 +537,340 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>remainder__age</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0922125461408249</v>
+        <v>0.07584329695490936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005411624522912831</v>
+        <v>0.04833732734823004</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08680092161791207</v>
+        <v>-0.02750596960667932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>remainder__age</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.001680168115165027</v>
+        <v>0.04973645952197455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05363789524317069</v>
+        <v>0.02782004724909345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05195772712800566</v>
+        <v>-0.0219164122728811</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1004056511605079</v>
+        <v>0.02283086155382171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04912197009300463</v>
+        <v>0.005503780639754862</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05128368106750324</v>
+        <v>-0.01732708091406684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02093723098483703</v>
+        <v>0.01619501053922336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005124481771504787</v>
+        <v>0.02529847912756644</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01581274921333225</v>
+        <v>0.009103468588343083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__marital-status_Never-married</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02194388673640582</v>
+        <v>0.03934608877569731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03654724212342492</v>
+        <v>0.03110627163735375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0146033553870191</v>
+        <v>-0.008239817138343566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__marital-status_Never-married</t>
+          <t>cat__marital-status_Divorced</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05544856956075379</v>
+        <v>0.01340137978458364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06802219678813173</v>
+        <v>0.005601977940831579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01257362722737795</v>
+        <v>-0.007799401843752061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04495160891561512</v>
+        <v>0.01583463742945836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03465337433359746</v>
+        <v>0.008120792403208659</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01029823458201766</v>
+        <v>-0.007713845026249704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02129881600170623</v>
+        <v>0.01410373348384472</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01148613765597466</v>
+        <v>0.00800708511554947</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009812678345731567</v>
+        <v>-0.006096648368295252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01917849175225568</v>
+        <v>0.01401504893545876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01225241579846618</v>
+        <v>0.008274621696256826</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006926075953789504</v>
+        <v>-0.005740427239201932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.007823028500687104</v>
+        <v>0.00869591398414702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001070277911125239</v>
+        <v>0.00423094136201818</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.006752750589561865</v>
+        <v>-0.00446497262212884</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat__marital-status_Divorced</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01027881445128613</v>
+        <v>0.007055034804585259</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006206508428246756</v>
+        <v>0.002738194186038819</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.004072306023039369</v>
+        <v>-0.00431684061854644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>cat__workclass_Self-emp-not-inc</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0002551054195882015</v>
+        <v>0.005490289340337769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002189407032049907</v>
+        <v>0.002816914296783655</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001934301612461705</v>
+        <v>-0.002673375043554114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__workclass_Federal-gov</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0004812763424583022</v>
+        <v>0.003965532291984148</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002257063695783221</v>
+        <v>0.001494523786904009</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001775787353324918</v>
+        <v>-0.002471008505080139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002525012313441178</v>
+        <v>0.04810263258007577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004107413653264199</v>
+        <v>0.04585513089079089</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001582401339823021</v>
+        <v>-0.002247501689284885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008292948387958507</v>
+        <v>0.01633804230411767</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009836161530052071</v>
+        <v>0.0182062942892099</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001543213142093564</v>
+        <v>0.001868251985092228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001533359889327966</v>
+        <v>0.003746876357394204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001236992064778094</v>
+        <v>0.005571482164986315</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001409660682850156</v>
+        <v>0.001824605807592111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-not-inc</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.002237530924222456</v>
+        <v>0.001565481823090326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0008795169432752344</v>
+        <v>0.003075239133260422</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.001358013980947221</v>
+        <v>0.001509757310170097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01592288251330954</v>
+        <v>0.002421599584422597</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01711611282572444</v>
+        <v>0.001043131018003916</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001193230312414896</v>
+        <v>-0.001378468566418681</v>
       </c>
     </row>
     <row r="24">
@@ -883,203 +883,203 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.840305932920502e-05</v>
+        <v>0.000365984438227535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001233367781988498</v>
+        <v>0.00154058050089991</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001164964722659293</v>
+        <v>0.001174596062672375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__workclass_Federal-gov</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001272423779217191</v>
+        <v>0.001871894232704738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004792854042859746</v>
+        <v>0.002846119381704818</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0007931383749312164</v>
+        <v>0.0009742251490000801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0001871160226900809</v>
+        <v>0.001237866512005869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0008405018310643744</v>
+        <v>0.002207350363334863</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0006533858083742935</v>
+        <v>0.0009694838513289938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0001115222107406018</v>
+        <v>0.000425241524659772</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0006842478753959218</v>
+        <v>0.001345120926852224</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00057272566465532</v>
+        <v>0.0009198794021924523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.077622813458633e-05</v>
+        <v>0.00187184470653982</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004946454481802793</v>
+        <v>0.002512729045522113</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000443869220045693</v>
+        <v>0.0006408843389822927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0002635124609999295</v>
+        <v>0.001664850378778413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005638086792087117</v>
+        <v>0.002292272480519266</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003002962182087822</v>
+        <v>0.0006274221017408528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0002301283818923333</v>
+        <v>6.017100536091953e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004725862811087554</v>
+        <v>0.0005923427265700932</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002424578992164221</v>
+        <v>0.0005321717212091737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.495148762806117e-05</v>
+        <v>0.0004492808746670867</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0002537708278771946</v>
+        <v>0.0007872059913186108</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002388193402491334</v>
+        <v>0.0003379251166515241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat__race_Other</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.413867824427886e-05</v>
+        <v>0.00225208943317459</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0002125183603855883</v>
+        <v>0.001917936143564368</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0001883796821413094</v>
+        <v>-0.0003341532896102225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__race_Other</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0001498942521426077</v>
+        <v>0.0005707990303077454</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002238076429742413</v>
+        <v>0.0008020551646795256</v>
       </c>
       <c r="E33" t="n">
-        <v>7.391339083163357e-05</v>
+        <v>0.0002312561343717802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0004234967285499925</v>
+        <v>0.001417154292965781</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004662654057354622</v>
+        <v>0.001413073455759309</v>
       </c>
       <c r="E34" t="n">
-        <v>4.276867718546969e-05</v>
+        <v>-4.080837206472173e-06</v>
       </c>
     </row>
   </sheetData>
